--- a/TSCPPT_Addin/AppData/Mapping/PPT_Specification.xlsx
+++ b/TSCPPT_Addin/AppData/Mapping/PPT_Specification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="3165"/>
@@ -1264,10 +1264,10 @@
   <dimension ref="A1:AU16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD2" s="3">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>22</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="AB3" s="3">
         <v>0</v>

--- a/TSCPPT_Addin/AppData/Mapping/PPT_Specification.xlsx
+++ b/TSCPPT_Addin/AppData/Mapping/PPT_Specification.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devendra.tripathi\Documents\Visual Studio 2015\Projects\TSCPPT_Addin\TSCPPT_Addin\AppData\Mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="3165"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="3165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Specification" sheetId="1" r:id="rId1"/>
@@ -12,13 +17,14 @@
     <sheet name="Slide" sheetId="3" r:id="rId3"/>
     <sheet name="ChartColor" sheetId="4" r:id="rId4"/>
     <sheet name="btnDiscription" sheetId="5" r:id="rId5"/>
+    <sheet name="Countrymaps" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="563">
   <si>
     <t>Name</t>
   </si>
@@ -269,24 +275,9 @@
     <t>End Page</t>
   </si>
   <si>
-    <t>Clustered Column</t>
-  </si>
-  <si>
-    <t>Chart 28</t>
-  </si>
-  <si>
-    <t>Stacked Column</t>
-  </si>
-  <si>
-    <t>Chart 10</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
-    <t>Pie</t>
-  </si>
-  <si>
     <t>Doughnut</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
   </si>
   <si>
     <t>Chart Title – by Category|(units, 20XX–20XX)</t>
-  </si>
-  <si>
-    <t>Calibri</t>
   </si>
   <si>
     <t>Corbel</t>
@@ -531,9 +519,6 @@
     <t>212,235,204</t>
   </si>
   <si>
-    <t>Chart 27</t>
-  </si>
-  <si>
     <t>customButton16</t>
   </si>
   <si>
@@ -699,10 +684,1036 @@
     <t>Title Box</t>
   </si>
   <si>
-    <t>customButton</t>
-  </si>
-  <si>
     <t>57,42,30</t>
+  </si>
+  <si>
+    <t>Cagr Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAGR: </t>
+  </si>
+  <si>
+    <t>btnselectsameColor</t>
+  </si>
+  <si>
+    <t>Select shape as same color</t>
+  </si>
+  <si>
+    <t>btnselectsameType</t>
+  </si>
+  <si>
+    <t>btnselectsameHeight</t>
+  </si>
+  <si>
+    <t>btnselectsameWeight</t>
+  </si>
+  <si>
+    <t>btnselectsameSize</t>
+  </si>
+  <si>
+    <t>Select shape as same type</t>
+  </si>
+  <si>
+    <t>Select shape as same height</t>
+  </si>
+  <si>
+    <t>Select shape as same weight</t>
+  </si>
+  <si>
+    <t>Select shape as same size</t>
+  </si>
+  <si>
+    <t>btnformatTable</t>
+  </si>
+  <si>
+    <t>Format Table</t>
+  </si>
+  <si>
+    <t>btnInsertTable</t>
+  </si>
+  <si>
+    <t>Insert Table</t>
+  </si>
+  <si>
+    <t>btnchart</t>
+  </si>
+  <si>
+    <t>btnRemoveDoubleSpace</t>
+  </si>
+  <si>
+    <t>btnRemove3D_effects</t>
+  </si>
+  <si>
+    <t>btnRemoveSlideAnimations</t>
+  </si>
+  <si>
+    <t>Remove Double Space</t>
+  </si>
+  <si>
+    <t>Remove 3D Effects</t>
+  </si>
+  <si>
+    <t>Remove Slide Animations</t>
+  </si>
+  <si>
+    <t>galTest</t>
+  </si>
+  <si>
+    <t>File TSC Color in shapes</t>
+  </si>
+  <si>
+    <t>btnAlignLeft</t>
+  </si>
+  <si>
+    <t>btnAlignRight</t>
+  </si>
+  <si>
+    <t>btnAlignTop</t>
+  </si>
+  <si>
+    <t>btnAlignBottom</t>
+  </si>
+  <si>
+    <t>btnAlignCenter</t>
+  </si>
+  <si>
+    <t>Align objects based Left Align</t>
+  </si>
+  <si>
+    <t>Align objects based Top Align</t>
+  </si>
+  <si>
+    <t>Align objects based Bottom Align</t>
+  </si>
+  <si>
+    <t>Align objects based Middle Align</t>
+  </si>
+  <si>
+    <t>Align objects based Center Align</t>
+  </si>
+  <si>
+    <t>Align objects based  Right Align</t>
+  </si>
+  <si>
+    <t>btnformatPPT</t>
+  </si>
+  <si>
+    <t>Format multipal PPT one time</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Developed By</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>btnbullet1</t>
+  </si>
+  <si>
+    <t>btnbullet2</t>
+  </si>
+  <si>
+    <t>Insert Bullet type 1</t>
+  </si>
+  <si>
+    <t>Insert Bullet type 2</t>
+  </si>
+  <si>
+    <t>btnRemoveMargin</t>
+  </si>
+  <si>
+    <t>Remove shape margin space</t>
+  </si>
+  <si>
+    <t>btnAlignMiddle</t>
+  </si>
+  <si>
+    <t>btnParagraphSpacing</t>
+  </si>
+  <si>
+    <t>Set Paragraph Spacing</t>
+  </si>
+  <si>
+    <t>customButton28</t>
+  </si>
+  <si>
+    <t>Insert Sub Heading</t>
+  </si>
+  <si>
+    <t>Sub Heading</t>
+  </si>
+  <si>
+    <t>174,155,0</t>
+  </si>
+  <si>
+    <t>Use this box for sub-heading</t>
+  </si>
+  <si>
+    <t>155,174,0</t>
+  </si>
+  <si>
+    <t>Four columns</t>
+  </si>
+  <si>
+    <t>One Chart One Column</t>
+  </si>
+  <si>
+    <t>One Chart One Column Horizontal</t>
+  </si>
+  <si>
+    <t>Two Columns Chart</t>
+  </si>
+  <si>
+    <t>Cluster Column Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacked Column Chart </t>
+  </si>
+  <si>
+    <t>100% Stacked Column Chart</t>
+  </si>
+  <si>
+    <t>Clustered Bar Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacked Bar Chart </t>
+  </si>
+  <si>
+    <t>100% Stacked Bar Chart</t>
+  </si>
+  <si>
+    <t>Line Chart</t>
+  </si>
+  <si>
+    <t>Combination Chart</t>
+  </si>
+  <si>
+    <t>Pie Chart</t>
+  </si>
+  <si>
+    <t>Scatter Chart</t>
+  </si>
+  <si>
+    <t>Dimension Scatter Chart</t>
+  </si>
+  <si>
+    <t>Single Ascending Waterfall Chart</t>
+  </si>
+  <si>
+    <t>Single Descending Waterfall Chart</t>
+  </si>
+  <si>
+    <t>Multiple Ascending Waterfall Chart</t>
+  </si>
+  <si>
+    <t>Multiple Descending Waterfall Chart</t>
+  </si>
+  <si>
+    <t>ClusterColumnChart</t>
+  </si>
+  <si>
+    <t>StackedColumnChart</t>
+  </si>
+  <si>
+    <t>100%StackedColumnChart</t>
+  </si>
+  <si>
+    <t>ClusteredBarChart</t>
+  </si>
+  <si>
+    <t>StackedBarChart</t>
+  </si>
+  <si>
+    <t>100%StackedBarChart</t>
+  </si>
+  <si>
+    <t>LineChart</t>
+  </si>
+  <si>
+    <t>CombinationChart</t>
+  </si>
+  <si>
+    <t>PieChart</t>
+  </si>
+  <si>
+    <t>ScatterChart</t>
+  </si>
+  <si>
+    <t>DimensionScatterChart</t>
+  </si>
+  <si>
+    <t>SingleAscendingWaterfallChart</t>
+  </si>
+  <si>
+    <t>SingleDescendingWaterfallChart</t>
+  </si>
+  <si>
+    <t>MultipleAscendingWaterfallChart</t>
+  </si>
+  <si>
+    <t>MultipleDescendingWaterfallChart</t>
+  </si>
+  <si>
+    <t>Slide</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+  </si>
+  <si>
+    <t>Slide3</t>
+  </si>
+  <si>
+    <t>World Map</t>
+  </si>
+  <si>
+    <t>Slide4</t>
+  </si>
+  <si>
+    <t>World Map (continents)</t>
+  </si>
+  <si>
+    <t>Slide5</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Slide6</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Slide7</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Slide8</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Slide9</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Slide10</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Slide11</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Slide12</t>
+  </si>
+  <si>
+    <t>Asia-south East</t>
+  </si>
+  <si>
+    <t>Slide13</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Slide14</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Slide15</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Slide16</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Slide17</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Slide18</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Slide19</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Slide20</t>
+  </si>
+  <si>
+    <t>Belgium(Brussels)</t>
+  </si>
+  <si>
+    <t>Slide21</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Slide22</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Slide23</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
+  </si>
+  <si>
+    <t>Slide24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil </t>
+  </si>
+  <si>
+    <t>Slide25</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Slide26</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Slide27</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Slide28</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Slide29</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Slide30</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Slide31</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Slide32</t>
+  </si>
+  <si>
+    <t>China(Cities)</t>
+  </si>
+  <si>
+    <t>Slide33</t>
+  </si>
+  <si>
+    <t>China (Hong Kong)</t>
+  </si>
+  <si>
+    <t>Slide34</t>
+  </si>
+  <si>
+    <t>China (Province)</t>
+  </si>
+  <si>
+    <t>Slide35</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Slide36</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Slide37</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Slide38</t>
+  </si>
+  <si>
+    <t>Denmark (Copenhagen)</t>
+  </si>
+  <si>
+    <t>Slide39</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Slide40</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Slide41</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Slide42</t>
+  </si>
+  <si>
+    <t>Europe (Cities)</t>
+  </si>
+  <si>
+    <t>Slide43</t>
+  </si>
+  <si>
+    <t>Europe(EU)</t>
+  </si>
+  <si>
+    <t>Slide44</t>
+  </si>
+  <si>
+    <t>Europe(States)</t>
+  </si>
+  <si>
+    <t>Slide45</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Slide46</t>
+  </si>
+  <si>
+    <t>France (13 regions)</t>
+  </si>
+  <si>
+    <t>Slide47</t>
+  </si>
+  <si>
+    <t>France (22regions)</t>
+  </si>
+  <si>
+    <t>Slide48</t>
+  </si>
+  <si>
+    <t>France (cities)</t>
+  </si>
+  <si>
+    <t>Slide49</t>
+  </si>
+  <si>
+    <t>France (Departments)</t>
+  </si>
+  <si>
+    <t>Slide50</t>
+  </si>
+  <si>
+    <t>France (Ille De France)</t>
+  </si>
+  <si>
+    <t>Slide51</t>
+  </si>
+  <si>
+    <t>France (Paris)</t>
+  </si>
+  <si>
+    <t>Slide52</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Slide53</t>
+  </si>
+  <si>
+    <t>Germany (Hamburg)</t>
+  </si>
+  <si>
+    <t>Slide54</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Slide55</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Slide56</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Slide57</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Slide58</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Slide59</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Slide60</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Slide61</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Slide62</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Slide63</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Slide64</t>
+  </si>
+  <si>
+    <t>Italy (Districts)</t>
+  </si>
+  <si>
+    <t>Slide65</t>
+  </si>
+  <si>
+    <t>Italy (Provinces)</t>
+  </si>
+  <si>
+    <t>Slide66</t>
+  </si>
+  <si>
+    <t>Japan (Tokyo)</t>
+  </si>
+  <si>
+    <t>Slide67</t>
+  </si>
+  <si>
+    <t>Japan (Wards)</t>
+  </si>
+  <si>
+    <t>Slide68</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Slide69</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Slide70</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Slide71</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Slide72</t>
+  </si>
+  <si>
+    <t>Luxemburg</t>
+  </si>
+  <si>
+    <t>Slide73</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Slide74</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Slide75</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Slide76</t>
+  </si>
+  <si>
+    <t>Middle east</t>
+  </si>
+  <si>
+    <t>Slide77</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Slide78</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Slide79</t>
+  </si>
+  <si>
+    <t>Netherlands (Amsterdam)</t>
+  </si>
+  <si>
+    <t>Slide80</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Slide81</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Slide82</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Slide83</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Slide84</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Slide85</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Slide86</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Slide87</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>Slide88</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Slide89</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Slide90</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Slide91</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Slide92</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Slide93</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slide94</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Slide95</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Slide96</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slide97</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slide98</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slide99</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Slide100</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Slide101</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Slide102</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Slide103</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Slide104</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Slide105</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Slide106</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Slide107</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Slide108</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Slide109</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Slide110</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Slide111</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Slide112</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Slide113</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Slide114</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Slide115</t>
+  </si>
+  <si>
+    <t>United Kingdom (London)</t>
+  </si>
+  <si>
+    <t>Slide116</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Slide117</t>
+  </si>
+  <si>
+    <t>United States (Boston)</t>
+  </si>
+  <si>
+    <t>Slide118</t>
+  </si>
+  <si>
+    <t>United States (California Counties)</t>
+  </si>
+  <si>
+    <t>Slide119</t>
+  </si>
+  <si>
+    <t>United States (New York)</t>
+  </si>
+  <si>
+    <t>Slide120</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Slide121</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Slide122</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Slide123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World 1 </t>
+  </si>
+  <si>
+    <t>Slide124</t>
+  </si>
+  <si>
+    <t>World 2</t>
+  </si>
+  <si>
+    <t>Slide125</t>
+  </si>
+  <si>
+    <t>World 3</t>
+  </si>
+  <si>
+    <t>Slide126</t>
+  </si>
+  <si>
+    <t>World Continents</t>
+  </si>
+  <si>
+    <t>Slide127</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Slide128</t>
   </si>
 </sst>
 </file>
@@ -712,7 +1723,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +1763,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -769,12 +1788,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,6 +1839,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -870,7 +1889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,12 +1905,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,42 +1937,29 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="10" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="10" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="9" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -949,10 +1967,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1016,7 +2044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1051,7 +2079,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1261,13 +2289,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AU16"/>
+  <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,25 +2356,25 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1364,16 +2392,16 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1397,13 +2425,13 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="32" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AC1" s="32" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
@@ -1430,34 +2458,34 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AM1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AN1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AO1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AP1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AQ1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AR1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="33" t="s">
+      <c r="AS1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AT1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="33" t="s">
+      <c r="AU1" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1480,16 +2508,16 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <v>39</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <v>36.07</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <v>603.76</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <v>15.27</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1507,16 +2535,16 @@
       <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11">
-        <v>0</v>
-      </c>
-      <c r="R2" s="11">
-        <v>0</v>
-      </c>
-      <c r="S2" s="11">
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10">
+        <v>0</v>
+      </c>
+      <c r="S2" s="10">
         <v>0</v>
       </c>
       <c r="T2" s="3">
@@ -1525,8 +2553,8 @@
       <c r="U2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="41" t="s">
-        <v>94</v>
+      <c r="V2" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="W2" s="3">
         <v>-1</v>
@@ -1541,7 +2569,7 @@
         <v>14</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AB2" s="3">
         <v>0</v>
@@ -1606,7 +2634,7 @@
     </row>
     <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -1623,16 +2651,16 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>39</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>57.24</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>779.7</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <v>23.992049999999999</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1650,26 +2678,26 @@
       <c r="O3" s="2">
         <v>1</v>
       </c>
-      <c r="P3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>0</v>
-      </c>
-      <c r="R3" s="11">
-        <v>0</v>
-      </c>
-      <c r="S3" s="11">
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
         <v>0</v>
       </c>
       <c r="T3" s="3">
         <v>-1</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V3" s="41" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="V3" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="W3" s="3">
         <v>-1</v>
@@ -1684,7 +2712,7 @@
         <v>22</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AB3" s="3">
         <v>0</v>
@@ -1748,145 +2776,145 @@
       </c>
     </row>
     <row r="4" spans="1:47" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="18">
-        <v>0</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
         <v>39</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>128.25</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <v>882.14</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>355.75</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
-        <v>1</v>
-      </c>
-      <c r="N4" s="18">
-        <v>1</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>0</v>
-      </c>
-      <c r="R4" s="20">
-        <v>0</v>
-      </c>
-      <c r="S4" s="20">
-        <v>0</v>
-      </c>
-      <c r="T4" s="18">
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4" s="19">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
         <v>-1</v>
       </c>
-      <c r="U4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" s="18">
-        <v>0</v>
-      </c>
-      <c r="X4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="17" t="s">
+      <c r="U4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" s="17">
+        <v>0</v>
+      </c>
+      <c r="X4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="16" t="s">
         <v>55</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB4" s="18">
+        <v>92</v>
+      </c>
+      <c r="AB4" s="17">
         <v>0</v>
       </c>
       <c r="AC4" s="3">
         <v>1</v>
       </c>
-      <c r="AD4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="18">
+      <c r="AD4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="17">
         <v>-1</v>
       </c>
-      <c r="AG4" s="17" t="s">
+      <c r="AG4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AH4" s="17" t="s">
+      <c r="AH4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="17">
+      <c r="AI4" s="16">
         <v>0.9</v>
       </c>
-      <c r="AJ4" s="17" t="s">
+      <c r="AJ4" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AK4" s="17" t="s">
+      <c r="AK4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="AL4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU4" s="17" t="s">
+      <c r="AL4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU4" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1909,16 +2937,16 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="23">
         <v>39</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>490.23</v>
       </c>
-      <c r="I5" s="25">
-        <v>285.44</v>
-      </c>
-      <c r="J5" s="24">
+      <c r="I5" s="24">
+        <v>657.75</v>
+      </c>
+      <c r="J5" s="23">
         <v>20.47</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1936,26 +2964,26 @@
       <c r="O5" s="2">
         <v>1</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="10" t="s">
         <v>49</v>
       </c>
       <c r="T5" s="3">
         <v>-1</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="W5" s="3">
         <v>0</v>
@@ -1970,7 +2998,7 @@
         <v>58</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AB5" s="3">
         <v>0</v>
@@ -2034,145 +3062,145 @@
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="28">
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
         <v>38.880000000000003</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <v>514.08000000000004</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>657.75</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="27">
         <v>8.7200000000000006</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="13">
-        <v>0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>1</v>
-      </c>
-      <c r="N6" s="13">
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
+      <c r="N6" s="12">
         <v>4</v>
       </c>
-      <c r="O6" s="12">
-        <v>1</v>
-      </c>
-      <c r="P6" s="15" t="s">
+      <c r="O6" s="11">
+        <v>1</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="12">
         <v>-1</v>
       </c>
-      <c r="U6" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="13">
-        <v>0</v>
-      </c>
-      <c r="X6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12">
+      <c r="U6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" s="12">
+        <v>0</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="11">
         <v>8</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB6" s="13">
+        <v>219</v>
+      </c>
+      <c r="AB6" s="12">
         <v>0</v>
       </c>
       <c r="AC6" s="3">
         <v>1</v>
       </c>
-      <c r="AD6" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="13">
+      <c r="AD6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="12">
         <v>-1</v>
       </c>
-      <c r="AG6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="12">
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="11">
         <v>3</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="11">
         <v>0.9</v>
       </c>
-      <c r="AJ6" s="12" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AK6" s="12" t="s">
+      <c r="AK6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AL6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU6" s="12" t="s">
+      <c r="AL6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU6" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2195,16 +3223,16 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -2222,26 +3250,26 @@
       <c r="O7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="10" t="s">
         <v>51</v>
       </c>
       <c r="T7" s="3">
         <v>-1</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="V7" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="W7" s="3">
         <v>1</v>
@@ -2256,7 +3284,7 @@
         <v>55</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AB7" s="3">
         <v>0</v>
@@ -2320,574 +3348,574 @@
       </c>
     </row>
     <row r="8" spans="1:47" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>-1</v>
       </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="28">
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
         <v>218.25200000000001</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>225.00040000000001</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <v>405.74990000000003</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="27">
         <v>98.876220000000004</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1</v>
+      </c>
+      <c r="N8" s="12">
         <v>3</v>
       </c>
-      <c r="O8" s="12">
-        <v>1</v>
-      </c>
-      <c r="P8" s="15">
+      <c r="O8" s="11">
+        <v>1</v>
+      </c>
+      <c r="P8" s="14">
         <v>7.2</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <v>7.2</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <v>3.6</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="14">
         <v>3.6</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="12">
         <v>-1</v>
       </c>
-      <c r="U8" s="16" t="s">
-        <v>95</v>
+      <c r="U8" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" s="13">
-        <v>0</v>
-      </c>
-      <c r="X8" s="13">
+        <v>88</v>
+      </c>
+      <c r="W8" s="12">
+        <v>0</v>
+      </c>
+      <c r="X8" s="12">
         <v>-2</v>
       </c>
-      <c r="Y8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12">
+      <c r="Y8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="11">
         <v>14</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB8" s="13">
+        <v>92</v>
+      </c>
+      <c r="AB8" s="12">
         <v>0</v>
       </c>
       <c r="AC8" s="3">
         <v>1</v>
       </c>
-      <c r="AD8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="13">
+      <c r="AD8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="12">
         <v>2</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AF8" s="12">
         <v>-1</v>
       </c>
-      <c r="AG8" s="12" t="s">
+      <c r="AG8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AH8" s="12" t="s">
+      <c r="AH8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AI8" s="11">
         <v>0.9</v>
       </c>
-      <c r="AJ8" s="12" t="s">
+      <c r="AJ8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AK8" s="12" t="s">
+      <c r="AK8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AL8" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM8" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN8" s="12" t="s">
+      <c r="AL8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AO8" s="12" t="s">
+      <c r="AO8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AP8" s="12" t="s">
+      <c r="AP8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AQ8" s="12" t="s">
+      <c r="AQ8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AR8" s="12" t="s">
+      <c r="AR8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AS8" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="12" t="s">
+      <c r="AS8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AU8" s="12" t="s">
+      <c r="AU8" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="30">
-        <v>0</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="A9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
         <v>88.75</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>125.58159999999999</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>439.25</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>30.02496</v>
       </c>
-      <c r="K9" s="30">
-        <v>0</v>
-      </c>
-      <c r="L9" s="30">
-        <v>0</v>
-      </c>
-      <c r="M9" s="30">
-        <v>1</v>
-      </c>
-      <c r="N9" s="30">
-        <v>1</v>
-      </c>
-      <c r="O9" s="30">
-        <v>0</v>
-      </c>
-      <c r="P9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>0</v>
-      </c>
-      <c r="R9" s="30">
-        <v>0</v>
-      </c>
-      <c r="S9" s="30">
-        <v>0</v>
-      </c>
-      <c r="T9" s="30">
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1</v>
+      </c>
+      <c r="N9" s="29">
+        <v>1</v>
+      </c>
+      <c r="O9" s="29">
+        <v>0</v>
+      </c>
+      <c r="P9" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>0</v>
+      </c>
+      <c r="R9" s="29">
+        <v>0</v>
+      </c>
+      <c r="S9" s="29">
+        <v>0</v>
+      </c>
+      <c r="T9" s="29">
         <v>-1</v>
       </c>
-      <c r="U9" s="30"/>
-      <c r="V9" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="W9" s="30">
-        <v>0</v>
-      </c>
-      <c r="X9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="30">
+      <c r="U9" s="29"/>
+      <c r="V9" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="W9" s="29">
+        <v>0</v>
+      </c>
+      <c r="X9" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="29">
         <v>24</v>
       </c>
-      <c r="AA9" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB9" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="30">
+      <c r="AA9" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="29">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="29">
         <v>-1</v>
       </c>
-      <c r="AG9" s="30">
+      <c r="AG9" s="29">
         <v>6</v>
       </c>
-      <c r="AH9" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="30">
+      <c r="AH9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="29">
         <v>0.9</v>
       </c>
-      <c r="AJ9" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="30">
+      <c r="AJ9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="29">
         <v>18</v>
       </c>
-      <c r="AL9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU9" s="32" t="s">
+      <c r="AL9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU9" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="30">
-        <v>0</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="31" t="s">
+      <c r="B10" s="29">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
         <v>88.750079999999997</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>347.6857</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="29">
         <v>359.32760000000002</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>22.375039999999998</v>
       </c>
-      <c r="K10" s="30">
-        <v>0</v>
-      </c>
-      <c r="L10" s="30">
-        <v>0</v>
-      </c>
-      <c r="M10" s="30">
-        <v>1</v>
-      </c>
-      <c r="N10" s="30">
-        <v>1</v>
-      </c>
-      <c r="O10" s="30">
-        <v>0</v>
-      </c>
-      <c r="P10" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="30">
-        <v>0</v>
-      </c>
-      <c r="R10" s="30">
-        <v>0</v>
-      </c>
-      <c r="S10" s="30">
-        <v>0</v>
-      </c>
-      <c r="T10" s="30">
+      <c r="K10" s="29">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="29">
+        <v>1</v>
+      </c>
+      <c r="O10" s="29">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>0</v>
+      </c>
+      <c r="R10" s="29">
+        <v>0</v>
+      </c>
+      <c r="S10" s="29">
+        <v>0</v>
+      </c>
+      <c r="T10" s="29">
         <v>-1</v>
       </c>
-      <c r="U10" s="30"/>
-      <c r="V10" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="W10" s="30">
-        <v>0</v>
-      </c>
-      <c r="X10" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="30">
+      <c r="U10" s="29"/>
+      <c r="V10" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
+      </c>
+      <c r="X10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="29">
         <v>16</v>
       </c>
-      <c r="AA10" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB10" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="30">
+      <c r="AA10" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="29">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="29">
         <v>-1</v>
       </c>
-      <c r="AG10" s="30">
+      <c r="AG10" s="29">
         <v>6</v>
       </c>
-      <c r="AH10" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="30">
+      <c r="AH10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="29">
         <v>0.9</v>
       </c>
-      <c r="AJ10" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="30">
+      <c r="AJ10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="29">
         <v>18</v>
       </c>
-      <c r="AL10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU10" s="32" t="s">
+      <c r="AL10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU10" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="30">
-        <v>0</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="31" t="s">
+      <c r="B11" s="29">
+        <v>0</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="30">
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+      <c r="G11" s="29">
         <v>88.764409999999998</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>192.3</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <v>597.54330000000004</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <v>77.7</v>
       </c>
-      <c r="K11" s="30">
-        <v>0</v>
-      </c>
-      <c r="L11" s="30">
-        <v>0</v>
-      </c>
-      <c r="M11" s="30">
-        <v>1</v>
-      </c>
-      <c r="N11" s="30">
-        <v>1</v>
-      </c>
-      <c r="O11" s="30">
-        <v>0</v>
-      </c>
-      <c r="P11" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="30">
-        <v>0</v>
-      </c>
-      <c r="R11" s="30">
-        <v>0</v>
-      </c>
-      <c r="S11" s="30">
-        <v>0</v>
-      </c>
-      <c r="T11" s="30">
+      <c r="K11" s="29">
+        <v>0</v>
+      </c>
+      <c r="L11" s="29">
+        <v>0</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1</v>
+      </c>
+      <c r="N11" s="29">
+        <v>1</v>
+      </c>
+      <c r="O11" s="29">
+        <v>0</v>
+      </c>
+      <c r="P11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>0</v>
+      </c>
+      <c r="R11" s="29">
+        <v>0</v>
+      </c>
+      <c r="S11" s="29">
+        <v>0</v>
+      </c>
+      <c r="T11" s="29">
         <v>-1</v>
       </c>
-      <c r="U11" s="30"/>
-      <c r="V11" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="W11" s="30">
+      <c r="U11" s="29"/>
+      <c r="V11" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="W11" s="29">
         <v>-1</v>
       </c>
-      <c r="X11" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="30">
+      <c r="X11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="29">
         <v>36</v>
       </c>
-      <c r="AA11" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="30">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="30">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="30">
+      <c r="AA11" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="29">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="29">
         <v>-1</v>
       </c>
-      <c r="AG11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="30">
+      <c r="AG11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="29">
         <v>0.9</v>
       </c>
-      <c r="AJ11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU11" s="32" t="s">
+      <c r="AJ11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU11" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>127</v>
+      <c r="A12" s="33" t="s">
+        <v>121</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2895,7 +3923,7 @@
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>72</v>
       </c>
       <c r="E12">
@@ -2949,8 +3977,8 @@
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12" s="43" t="s">
-        <v>94</v>
+      <c r="V12" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -2965,7 +3993,7 @@
         <v>24</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -3029,8 +4057,8 @@
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>128</v>
+      <c r="A13" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3038,7 +4066,7 @@
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>72</v>
       </c>
       <c r="E13">
@@ -3092,8 +4120,8 @@
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13" s="43" t="s">
-        <v>94</v>
+      <c r="V13" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -3108,7 +4136,7 @@
         <v>16</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3172,8 +4200,8 @@
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>129</v>
+      <c r="A14" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3181,7 +4209,7 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>72</v>
       </c>
       <c r="E14">
@@ -3235,8 +4263,8 @@
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14" s="43" t="s">
-        <v>94</v>
+      <c r="V14" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3251,7 +4279,7 @@
         <v>16</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3315,8 +4343,8 @@
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>130</v>
+      <c r="A15" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3324,7 +4352,7 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>72</v>
       </c>
       <c r="E15">
@@ -3378,8 +4406,8 @@
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15" s="43" t="s">
-        <v>94</v>
+      <c r="V15" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -3394,7 +4422,7 @@
         <v>24</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -3458,8 +4486,8 @@
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>131</v>
+      <c r="A16" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3467,7 +4495,7 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>72</v>
       </c>
       <c r="E16">
@@ -3503,16 +4531,16 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="P16" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>0</v>
+      </c>
+      <c r="R16" s="42">
+        <v>0</v>
+      </c>
+      <c r="S16" s="42">
         <v>0</v>
       </c>
       <c r="T16">
@@ -3521,8 +4549,8 @@
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16" s="43" t="s">
-        <v>94</v>
+      <c r="V16" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3537,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3599,6 +4627,436 @@
       <c r="AU16" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23">
+        <v>534.74120000000005</v>
+      </c>
+      <c r="H17" s="23">
+        <v>252.22669999999999</v>
+      </c>
+      <c r="I17" s="23">
+        <v>82.4</v>
+      </c>
+      <c r="J17" s="23">
+        <v>21.6</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="W17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="43">
+        <v>78204124</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
+        <v>39</v>
+      </c>
+      <c r="H18" s="23">
+        <v>123.0128</v>
+      </c>
+      <c r="I18" s="24">
+        <v>448.125</v>
+      </c>
+      <c r="J18" s="23">
+        <v>24.23441</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="V18" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>78204124</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23">
+        <v>39</v>
+      </c>
+      <c r="H19" s="23">
+        <v>145</v>
+      </c>
+      <c r="I19" s="23">
+        <v>39.69</v>
+      </c>
+      <c r="J19" s="23">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="2"/>
+      <c r="V19" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="H22" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3609,23 +5067,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -3634,57 +5093,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
+        <v>280</v>
+      </c>
+      <c r="B2" s="42">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3">
-        <v>14</v>
+        <v>281</v>
+      </c>
+      <c r="B3" s="42">
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="9">
-        <v>14</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>86</v>
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="42">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5">
+        <v>283</v>
+      </c>
+      <c r="B5" s="42">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="42">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="42">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="42">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="42">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="42">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="42">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="42">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="42">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="42">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" s="42">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="9">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>86</v>
+      <c r="C15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="42">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="42">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3696,10 +5276,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,7 +5298,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3745,7 +5325,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +5333,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +5341,39 @@
         <v>82</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3775,7 +5387,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3787,280 +5399,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>125</v>
+      <c r="A1" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>144</v>
+        <v>97</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>145</v>
+        <v>98</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>146</v>
+        <v>99</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="38">
+        <v>132</v>
+      </c>
+      <c r="C5" s="37">
         <v>132197185</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>145149154</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>147</v>
+      <c r="E5" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>147</v>
+        <v>100</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="38">
+        <v>101</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="37">
         <v>181216209</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>187189192</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>148</v>
+      <c r="E6" s="36" t="s">
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="L6" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>148</v>
+      <c r="N6" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M7" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>165</v>
+      <c r="N7" s="38" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="M8" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="M8" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>166</v>
+      <c r="N8" s="38" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="M9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>167</v>
+      <c r="N9" s="38" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="M10" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="M10" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>168</v>
+      <c r="N10" s="38" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="M11" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="M11" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>169</v>
+      <c r="N11" s="38" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4072,10 +5684,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,277 +5695,1892 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
         <v>171</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>179</v>
-      </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" t="s">
         <v>185</v>
-      </c>
-      <c r="B17" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>224</v>
       </c>
-      <c r="B33" t="s">
-        <v>220</v>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="42">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="42">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="42">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="42">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="42">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="42">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" s="42">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="42">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="42">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="42">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="42">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="42">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="42">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="42">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="42">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="42">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="42">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="42">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="42">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="42">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" s="42">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="42">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" s="42">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" s="42">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="42">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="42">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="42">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" s="42">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="42">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" s="42">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B32" s="42">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" s="42">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" s="42">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B35" s="42">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="42">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B37" s="42">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" s="42">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>386</v>
+      </c>
+      <c r="B39" s="42">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>388</v>
+      </c>
+      <c r="B40" s="42">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B41" s="42">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>392</v>
+      </c>
+      <c r="B42" s="42">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>394</v>
+      </c>
+      <c r="B43" s="42">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>396</v>
+      </c>
+      <c r="B44" s="42">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>398</v>
+      </c>
+      <c r="B45" s="42">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>400</v>
+      </c>
+      <c r="B46" s="42">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>402</v>
+      </c>
+      <c r="B47" s="42">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" s="42">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>406</v>
+      </c>
+      <c r="B49" s="42">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>408</v>
+      </c>
+      <c r="B50" s="42">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>410</v>
+      </c>
+      <c r="B51" s="42">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>412</v>
+      </c>
+      <c r="B52" s="42">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>414</v>
+      </c>
+      <c r="B53" s="42">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54" s="42">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" s="42">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>420</v>
+      </c>
+      <c r="B56" s="42">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>422</v>
+      </c>
+      <c r="B57" s="42">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>424</v>
+      </c>
+      <c r="B58" s="42">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>426</v>
+      </c>
+      <c r="B59" s="42">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>428</v>
+      </c>
+      <c r="B60" s="42">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="42">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>432</v>
+      </c>
+      <c r="B62" s="42">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>434</v>
+      </c>
+      <c r="B63" s="42">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>436</v>
+      </c>
+      <c r="B64" s="42">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" s="42">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>440</v>
+      </c>
+      <c r="B66" s="42">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>442</v>
+      </c>
+      <c r="B67" s="42">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>444</v>
+      </c>
+      <c r="B68" s="42">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" s="42">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>448</v>
+      </c>
+      <c r="B70" s="42">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>450</v>
+      </c>
+      <c r="B71" s="42">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>452</v>
+      </c>
+      <c r="B72" s="42">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>454</v>
+      </c>
+      <c r="B73" s="42">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>456</v>
+      </c>
+      <c r="B74" s="42">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>458</v>
+      </c>
+      <c r="B75" s="42">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>460</v>
+      </c>
+      <c r="B76" s="42">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>462</v>
+      </c>
+      <c r="B77" s="42">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>464</v>
+      </c>
+      <c r="B78" s="42">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>466</v>
+      </c>
+      <c r="B79" s="42">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>468</v>
+      </c>
+      <c r="B80" s="42">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>470</v>
+      </c>
+      <c r="B81" s="42">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>472</v>
+      </c>
+      <c r="B82" s="42">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>474</v>
+      </c>
+      <c r="B83" s="42">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>476</v>
+      </c>
+      <c r="B84" s="42">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>478</v>
+      </c>
+      <c r="B85" s="42">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>480</v>
+      </c>
+      <c r="B86" s="42">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>482</v>
+      </c>
+      <c r="B87" s="42">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>484</v>
+      </c>
+      <c r="B88" s="42">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>486</v>
+      </c>
+      <c r="B89" s="42">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>488</v>
+      </c>
+      <c r="B90" s="42">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>490</v>
+      </c>
+      <c r="B91" s="42">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>492</v>
+      </c>
+      <c r="B92" s="42">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>494</v>
+      </c>
+      <c r="B93" s="42">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" s="42">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>498</v>
+      </c>
+      <c r="B95" s="42">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>500</v>
+      </c>
+      <c r="B96" s="42">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>502</v>
+      </c>
+      <c r="B97" s="42">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>504</v>
+      </c>
+      <c r="B98" s="42">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>506</v>
+      </c>
+      <c r="B99" s="42">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>508</v>
+      </c>
+      <c r="B100" s="42">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>510</v>
+      </c>
+      <c r="B101" s="42">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>512</v>
+      </c>
+      <c r="B102" s="42">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>514</v>
+      </c>
+      <c r="B103" s="42">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>516</v>
+      </c>
+      <c r="B104" s="42">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>518</v>
+      </c>
+      <c r="B105" s="42">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>520</v>
+      </c>
+      <c r="B106" s="42">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>522</v>
+      </c>
+      <c r="B107" s="42">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>524</v>
+      </c>
+      <c r="B108" s="42">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>526</v>
+      </c>
+      <c r="B109" s="42">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>528</v>
+      </c>
+      <c r="B110" s="42">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>530</v>
+      </c>
+      <c r="B111" s="42">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>532</v>
+      </c>
+      <c r="B112" s="42">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>534</v>
+      </c>
+      <c r="B113" s="42">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>536</v>
+      </c>
+      <c r="B114" s="42">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>538</v>
+      </c>
+      <c r="B115" s="42">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>540</v>
+      </c>
+      <c r="B116" s="42">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>542</v>
+      </c>
+      <c r="B117" s="42">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>544</v>
+      </c>
+      <c r="B118" s="42">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>546</v>
+      </c>
+      <c r="B119" s="42">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>548</v>
+      </c>
+      <c r="B120" s="42">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>550</v>
+      </c>
+      <c r="B121" s="42">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>552</v>
+      </c>
+      <c r="B122" s="42">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>554</v>
+      </c>
+      <c r="B123" s="42">
+        <v>124</v>
+      </c>
+      <c r="C123" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>556</v>
+      </c>
+      <c r="B124" s="42">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>558</v>
+      </c>
+      <c r="B125" s="42">
+        <v>126</v>
+      </c>
+      <c r="C125" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>560</v>
+      </c>
+      <c r="B126" s="42">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>562</v>
+      </c>
+      <c r="B127" s="42">
+        <v>128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>